--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp6-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp6-Bmpr1a.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.443826</v>
+        <v>7.739652666666667</v>
       </c>
       <c r="H2">
-        <v>64.331478</v>
+        <v>23.218958</v>
       </c>
       <c r="I2">
-        <v>0.6062978927103765</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="J2">
-        <v>0.6062978927103765</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.330485333333333</v>
+        <v>6.101885666666667</v>
       </c>
       <c r="N2">
-        <v>6.991456</v>
+        <v>18.305657</v>
       </c>
       <c r="O2">
-        <v>0.03655621216383393</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="P2">
-        <v>0.03655621216383394</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="Q2">
-        <v>49.974521983552</v>
+        <v>47.22647567171178</v>
       </c>
       <c r="R2">
-        <v>449.7706978519681</v>
+        <v>425.038281045406</v>
       </c>
       <c r="S2">
-        <v>0.02216395440040594</v>
+        <v>0.07096605495734828</v>
       </c>
       <c r="T2">
-        <v>0.02216395440040595</v>
+        <v>0.07096605495734828</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.443826</v>
+        <v>7.739652666666667</v>
       </c>
       <c r="H3">
-        <v>64.331478</v>
+        <v>23.218958</v>
       </c>
       <c r="I3">
-        <v>0.6062978927103765</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="J3">
-        <v>0.6062978927103765</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>29.178763</v>
       </c>
       <c r="N3">
-        <v>87.536289</v>
+        <v>87.53628900000001</v>
       </c>
       <c r="O3">
-        <v>0.4577008212193114</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="P3">
-        <v>0.4577008212193115</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="Q3">
-        <v>625.704316667238</v>
+        <v>225.8334908629847</v>
       </c>
       <c r="R3">
-        <v>5631.338850005142</v>
+        <v>2032.501417766862</v>
       </c>
       <c r="S3">
-        <v>0.2775030433970773</v>
+        <v>0.3393543917017741</v>
       </c>
       <c r="T3">
-        <v>0.2775030433970773</v>
+        <v>0.3393543917017741</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.443826</v>
+        <v>7.739652666666667</v>
       </c>
       <c r="H4">
-        <v>64.331478</v>
+        <v>23.218958</v>
       </c>
       <c r="I4">
-        <v>0.6062978927103765</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="J4">
-        <v>0.6062978927103765</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.3937893333333333</v>
+        <v>0.146644</v>
       </c>
       <c r="N4">
-        <v>1.181368</v>
+        <v>0.439932</v>
       </c>
       <c r="O4">
-        <v>0.006177016525822971</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="P4">
-        <v>0.006177016525822972</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="Q4">
-        <v>8.444349944656</v>
+        <v>1.134973625650667</v>
       </c>
       <c r="R4">
-        <v>75.999149501904</v>
+        <v>10.214762630856</v>
       </c>
       <c r="S4">
-        <v>0.003745112102843638</v>
+        <v>0.001705496748327369</v>
       </c>
       <c r="T4">
-        <v>0.003745112102843639</v>
+        <v>0.001705496748327369</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>21.443826</v>
+        <v>7.739652666666667</v>
       </c>
       <c r="H5">
-        <v>64.331478</v>
+        <v>23.218958</v>
       </c>
       <c r="I5">
-        <v>0.6062978927103765</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="J5">
-        <v>0.6062978927103765</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.67565866666667</v>
+        <v>15.02284966666667</v>
       </c>
       <c r="N5">
-        <v>65.026976</v>
+        <v>45.068549</v>
       </c>
       <c r="O5">
-        <v>0.340006420841172</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="P5">
-        <v>0.3400064208411721</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="Q5">
-        <v>464.809052883392</v>
+        <v>116.2716384835491</v>
       </c>
       <c r="R5">
-        <v>4183.281475950528</v>
+        <v>1046.444746351942</v>
       </c>
       <c r="S5">
-        <v>0.206145176464</v>
+        <v>0.1747185105228369</v>
       </c>
       <c r="T5">
-        <v>0.206145176464</v>
+        <v>0.174718510522837</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>21.443826</v>
+        <v>7.739652666666667</v>
       </c>
       <c r="H6">
-        <v>64.331478</v>
+        <v>23.218958</v>
       </c>
       <c r="I6">
-        <v>0.6062978927103765</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="J6">
-        <v>0.6062978927103765</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.749056666666666</v>
+        <v>5.288900666666667</v>
       </c>
       <c r="N6">
-        <v>29.24717</v>
+        <v>15.866702</v>
       </c>
       <c r="O6">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="P6">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="Q6">
-        <v>209.05707482414</v>
+        <v>40.93425414850178</v>
       </c>
       <c r="R6">
-        <v>1881.51367341726</v>
+        <v>368.408287336516</v>
       </c>
       <c r="S6">
-        <v>0.09271787482048384</v>
+        <v>0.06151088956402209</v>
       </c>
       <c r="T6">
-        <v>0.09271787482048384</v>
+        <v>0.06151088956402209</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>21.443826</v>
+        <v>7.739652666666667</v>
       </c>
       <c r="H7">
-        <v>64.331478</v>
+        <v>23.218958</v>
       </c>
       <c r="I7">
-        <v>0.6062978927103765</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="J7">
-        <v>0.6062978927103765</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.4229803333333333</v>
+        <v>0.050258</v>
       </c>
       <c r="N7">
-        <v>1.268941</v>
+        <v>0.150774</v>
       </c>
       <c r="O7">
-        <v>0.006634909297775397</v>
+        <v>0.0009008537317934847</v>
       </c>
       <c r="P7">
-        <v>0.006634909297775398</v>
+        <v>0.0009008537317934848</v>
       </c>
       <c r="Q7">
-        <v>9.070316669422001</v>
+        <v>0.3889794637213334</v>
       </c>
       <c r="R7">
-        <v>81.632850024798</v>
+        <v>3.500815173492</v>
       </c>
       <c r="S7">
-        <v>0.004022731525565707</v>
+        <v>0.0005845098031793793</v>
       </c>
       <c r="T7">
-        <v>0.004022731525565707</v>
+        <v>0.0005845098031793794</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>10.925382</v>
       </c>
       <c r="I8">
-        <v>0.1029672609675761</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="J8">
-        <v>0.1029672609675761</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.330485333333333</v>
+        <v>6.101885666666667</v>
       </c>
       <c r="N8">
-        <v>6.991456</v>
+        <v>18.305657</v>
       </c>
       <c r="O8">
-        <v>0.03655621216383393</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="P8">
-        <v>0.03655621216383394</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="Q8">
-        <v>8.487147504021333</v>
+        <v>22.22181060955267</v>
       </c>
       <c r="R8">
-        <v>76.384327536192</v>
+        <v>199.996295485974</v>
       </c>
       <c r="S8">
-        <v>0.003764093037859567</v>
+        <v>0.03339216425827652</v>
       </c>
       <c r="T8">
-        <v>0.003764093037859568</v>
+        <v>0.03339216425827652</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>10.925382</v>
       </c>
       <c r="I9">
-        <v>0.1029672609675761</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="J9">
-        <v>0.1029672609675761</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>29.178763</v>
       </c>
       <c r="N9">
-        <v>87.536289</v>
+        <v>87.53628900000001</v>
       </c>
       <c r="O9">
-        <v>0.4577008212193114</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="P9">
-        <v>0.4577008212193115</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="Q9">
         <v>106.263044020822</v>
       </c>
       <c r="R9">
-        <v>956.3673961873981</v>
+        <v>956.3673961873982</v>
       </c>
       <c r="S9">
-        <v>0.04712819990356272</v>
+        <v>0.1596788435863277</v>
       </c>
       <c r="T9">
-        <v>0.04712819990356272</v>
+        <v>0.1596788435863277</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>10.925382</v>
       </c>
       <c r="I10">
-        <v>0.1029672609675761</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="J10">
-        <v>0.1029672609675761</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.3937893333333333</v>
+        <v>0.146644</v>
       </c>
       <c r="N10">
-        <v>1.181368</v>
+        <v>0.439932</v>
       </c>
       <c r="O10">
-        <v>0.006177016525822971</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="P10">
-        <v>0.006177016525822972</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="Q10">
-        <v>1.434099631397334</v>
+        <v>0.5340472393360001</v>
       </c>
       <c r="R10">
-        <v>12.906896682576</v>
+        <v>4.806425154024001</v>
       </c>
       <c r="S10">
-        <v>0.0006360304726154438</v>
+        <v>0.0008024995555457041</v>
       </c>
       <c r="T10">
-        <v>0.000636030472615444</v>
+        <v>0.0008024995555457042</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>10.925382</v>
       </c>
       <c r="I11">
-        <v>0.1029672609675761</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="J11">
-        <v>0.1029672609675761</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.67565866666667</v>
+        <v>15.02284966666667</v>
       </c>
       <c r="N11">
-        <v>65.026976</v>
+        <v>45.068549</v>
       </c>
       <c r="O11">
-        <v>0.340006420841172</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="P11">
-        <v>0.3400064208411721</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="Q11">
-        <v>78.93828367831468</v>
+        <v>54.71012377896867</v>
       </c>
       <c r="R11">
-        <v>710.4445531048322</v>
+        <v>492.391114010718</v>
       </c>
       <c r="S11">
-        <v>0.03500952986540445</v>
+        <v>0.08221154756096348</v>
       </c>
       <c r="T11">
-        <v>0.03500952986540445</v>
+        <v>0.08221154756096349</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>10.925382</v>
       </c>
       <c r="I12">
-        <v>0.1029672609675761</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="J12">
-        <v>0.1029672609675761</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.749056666666666</v>
+        <v>5.288900666666667</v>
       </c>
       <c r="N12">
-        <v>29.24717</v>
+        <v>15.866702</v>
       </c>
       <c r="O12">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="P12">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="Q12">
-        <v>35.50405607432667</v>
+        <v>19.26108671446267</v>
       </c>
       <c r="R12">
-        <v>319.53650466894</v>
+        <v>173.349780430164</v>
       </c>
       <c r="S12">
-        <v>0.01574622925097365</v>
+        <v>0.0289431578129714</v>
       </c>
       <c r="T12">
-        <v>0.01574622925097365</v>
+        <v>0.0289431578129714</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>10.925382</v>
       </c>
       <c r="I13">
-        <v>0.1029672609675761</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="J13">
-        <v>0.1029672609675761</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1243,28 +1243,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.4229803333333333</v>
+        <v>0.050258</v>
       </c>
       <c r="N13">
-        <v>1.268941</v>
+        <v>0.150774</v>
       </c>
       <c r="O13">
-        <v>0.006634909297775397</v>
+        <v>0.0009008537317934847</v>
       </c>
       <c r="P13">
-        <v>0.006634909297775398</v>
+        <v>0.0009008537317934848</v>
       </c>
       <c r="Q13">
-        <v>1.540407240051333</v>
+        <v>0.183029282852</v>
       </c>
       <c r="R13">
-        <v>13.863665160462</v>
+        <v>1.647263545668</v>
       </c>
       <c r="S13">
-        <v>0.0006831784371602362</v>
+        <v>0.0002750335687966503</v>
       </c>
       <c r="T13">
-        <v>0.0006831784371602363</v>
+        <v>0.0002750335687966504</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>10.28284533333333</v>
+        <v>0.5470016666666667</v>
       </c>
       <c r="H14">
-        <v>30.848536</v>
+        <v>1.641005</v>
       </c>
       <c r="I14">
-        <v>0.2907348463220475</v>
+        <v>0.04585690035963046</v>
       </c>
       <c r="J14">
-        <v>0.2907348463220475</v>
+        <v>0.04585690035963046</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.330485333333333</v>
+        <v>6.101885666666667</v>
       </c>
       <c r="N14">
-        <v>6.991456</v>
+        <v>18.305657</v>
       </c>
       <c r="O14">
-        <v>0.03655621216383393</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="P14">
-        <v>0.03655621216383394</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="Q14">
-        <v>23.96402023426844</v>
+        <v>3.337741629476112</v>
       </c>
       <c r="R14">
-        <v>215.676182108416</v>
+        <v>30.039674665285</v>
       </c>
       <c r="S14">
-        <v>0.01062816472556842</v>
+        <v>0.005015541654163951</v>
       </c>
       <c r="T14">
-        <v>0.01062816472556843</v>
+        <v>0.005015541654163951</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>10.28284533333333</v>
+        <v>0.5470016666666667</v>
       </c>
       <c r="H15">
-        <v>30.848536</v>
+        <v>1.641005</v>
       </c>
       <c r="I15">
-        <v>0.2907348463220475</v>
+        <v>0.04585690035963046</v>
       </c>
       <c r="J15">
-        <v>0.2907348463220475</v>
+        <v>0.04585690035963046</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>29.178763</v>
       </c>
       <c r="N15">
-        <v>87.536289</v>
+        <v>87.53628900000001</v>
       </c>
       <c r="O15">
-        <v>0.4577008212193114</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="P15">
-        <v>0.4577008212193115</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="Q15">
-        <v>300.0407069469893</v>
+        <v>15.96083199227167</v>
       </c>
       <c r="R15">
-        <v>2700.366362522904</v>
+        <v>143.647487930445</v>
       </c>
       <c r="S15">
-        <v>0.1330695779186715</v>
+        <v>0.02398394680564777</v>
       </c>
       <c r="T15">
-        <v>0.1330695779186715</v>
+        <v>0.02398394680564777</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>10.28284533333333</v>
+        <v>0.5470016666666667</v>
       </c>
       <c r="H16">
-        <v>30.848536</v>
+        <v>1.641005</v>
       </c>
       <c r="I16">
-        <v>0.2907348463220475</v>
+        <v>0.04585690035963046</v>
       </c>
       <c r="J16">
-        <v>0.2907348463220475</v>
+        <v>0.04585690035963046</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.3937893333333333</v>
+        <v>0.146644</v>
       </c>
       <c r="N16">
-        <v>1.181368</v>
+        <v>0.439932</v>
       </c>
       <c r="O16">
-        <v>0.006177016525822971</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="P16">
-        <v>0.006177016525822972</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="Q16">
-        <v>4.04927480858311</v>
+        <v>0.08021451240666667</v>
       </c>
       <c r="R16">
-        <v>36.443473277248</v>
+        <v>0.7219306116600001</v>
       </c>
       <c r="S16">
-        <v>0.001795873950363889</v>
+        <v>0.000120536360481334</v>
       </c>
       <c r="T16">
-        <v>0.00179587395036389</v>
+        <v>0.000120536360481334</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.28284533333333</v>
+        <v>0.5470016666666667</v>
       </c>
       <c r="H17">
-        <v>30.848536</v>
+        <v>1.641005</v>
       </c>
       <c r="I17">
-        <v>0.2907348463220475</v>
+        <v>0.04585690035963046</v>
       </c>
       <c r="J17">
-        <v>0.2907348463220475</v>
+        <v>0.04585690035963046</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.67565866666667</v>
+        <v>15.02284966666667</v>
       </c>
       <c r="N17">
-        <v>65.026976</v>
+        <v>45.068549</v>
       </c>
       <c r="O17">
-        <v>0.340006420841172</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="P17">
-        <v>0.3400064208411721</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="Q17">
-        <v>222.8874455674595</v>
+        <v>8.217523805749444</v>
       </c>
       <c r="R17">
-        <v>2005.987010107136</v>
+        <v>73.957714251745</v>
       </c>
       <c r="S17">
-        <v>0.09885171451176757</v>
+        <v>0.01234826943399131</v>
       </c>
       <c r="T17">
-        <v>0.09885171451176758</v>
+        <v>0.01234826943399131</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>10.28284533333333</v>
+        <v>0.5470016666666667</v>
       </c>
       <c r="H18">
-        <v>30.848536</v>
+        <v>1.641005</v>
       </c>
       <c r="I18">
-        <v>0.2907348463220475</v>
+        <v>0.04585690035963046</v>
       </c>
       <c r="J18">
-        <v>0.2907348463220475</v>
+        <v>0.04585690035963046</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>9.749056666666666</v>
+        <v>5.288900666666667</v>
       </c>
       <c r="N18">
-        <v>29.24717</v>
+        <v>15.866702</v>
       </c>
       <c r="O18">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="P18">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="Q18">
-        <v>100.2480418492355</v>
+        <v>2.893037479501111</v>
       </c>
       <c r="R18">
-        <v>902.2323766431199</v>
+        <v>26.03733731551</v>
       </c>
       <c r="S18">
-        <v>0.04446051588062672</v>
+        <v>0.004347295745528636</v>
       </c>
       <c r="T18">
-        <v>0.04446051588062672</v>
+        <v>0.004347295745528635</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>10.28284533333333</v>
+        <v>0.5470016666666667</v>
       </c>
       <c r="H19">
-        <v>30.848536</v>
+        <v>1.641005</v>
       </c>
       <c r="I19">
-        <v>0.2907348463220475</v>
+        <v>0.04585690035963046</v>
       </c>
       <c r="J19">
-        <v>0.2907348463220475</v>
+        <v>0.04585690035963046</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1615,28 +1615,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.4229803333333333</v>
+        <v>0.050258</v>
       </c>
       <c r="N19">
-        <v>1.268941</v>
+        <v>0.150774</v>
       </c>
       <c r="O19">
-        <v>0.006634909297775397</v>
+        <v>0.0009008537317934847</v>
       </c>
       <c r="P19">
-        <v>0.006634909297775398</v>
+        <v>0.0009008537317934848</v>
       </c>
       <c r="Q19">
-        <v>4.349441346708444</v>
+        <v>0.02749120976333333</v>
       </c>
       <c r="R19">
-        <v>39.144972120376</v>
+        <v>0.24742088787</v>
       </c>
       <c r="S19">
-        <v>0.001928999335049454</v>
+        <v>4.13103598174551E-05</v>
       </c>
       <c r="T19">
-        <v>0.001928999335049455</v>
+        <v>4.131035981745509E-05</v>
       </c>
     </row>
   </sheetData>
